--- a/Planejamento Financeiro.xlsx
+++ b/Planejamento Financeiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Tardivo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B562CA5-27EA-43D2-8574-62FC2EDEB39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B228E4E7-3D9C-4D30-9F4C-F6381010DC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>Poupança Realizada</t>
+  </si>
+  <si>
+    <t>Célula Editável</t>
+  </si>
+  <si>
+    <t>Célula Não Editável</t>
   </si>
 </sst>
 </file>
@@ -168,12 +174,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -190,40 +214,49 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
     <dxf>
       <font>
         <b val="0"/>
@@ -241,6 +274,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -260,6 +299,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -280,7 +325,21 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -299,6 +358,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -319,10 +384,22 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -447,22 +524,22 @@
   </dxfs>
   <tableStyles count="3">
     <tableStyle name="Planejamento Trabalho-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
     <tableStyle name="Planejamento Camisetas-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
     <tableStyle name="Planejamento Mini Cursos-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3073,6 +3150,156 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1892739</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>550499</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Agrupar 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD80D2A-D798-47D0-A707-EF1AAE97191F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1219200" y="161925"/>
+          <a:ext cx="1511739" cy="388574"/>
+          <a:chOff x="5459730" y="32935"/>
+          <a:chExt cx="1511739" cy="394554"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="CaixaDeTexto 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38DC1EB-AFDA-B9C6-3918-1F939E011973}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5459730" y="32935"/>
+            <a:ext cx="435414" cy="365538"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0F172A"/>
+                </a:solidFill>
+                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+                <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>i9 </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="CaixaDeTexto 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F26F84-111B-3E39-22F5-65814DE97C0B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5713095" y="61951"/>
+            <a:ext cx="1258374" cy="365538"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="b">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="2060EA"/>
+                </a:solidFill>
+                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+                <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Planilhas </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -4110,18 +4337,18 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>13607</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>405492</xdr:colOff>
+      <xdr:colOff>419099</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="21" name="Data">
@@ -4144,7 +4371,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4154,7 +4381,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="612321" y="326571"/>
+              <a:off x="625928" y="911678"/>
               <a:ext cx="3467100" cy="1796143"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4185,10 +4412,300 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>606864</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Agrupar 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D06F2F-20E1-4AFB-9EA6-4C059F5A1855}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="993321" y="748393"/>
+          <a:ext cx="225864" cy="0"/>
+          <a:chOff x="5459730" y="32935"/>
+          <a:chExt cx="1511739" cy="394554"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="CaixaDeTexto 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B3AF07-7D72-50F3-49FC-3774584B8A7D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5459730" y="32935"/>
+            <a:ext cx="435414" cy="365538"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0F172A"/>
+                </a:solidFill>
+                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+                <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>i9 </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="CaixaDeTexto 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9BE2D0E-8B72-0880-693D-AAE29F0D188B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5713095" y="61951"/>
+            <a:ext cx="1258374" cy="365538"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="b">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="2060EA"/>
+                </a:solidFill>
+                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+                <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Planilhas </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>436775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>497431</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Agrupar 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A8AC44-08C3-4F28-9F69-08CBD3D7EE2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="762000" y="108857"/>
+          <a:ext cx="1511739" cy="388574"/>
+          <a:chOff x="5459730" y="32935"/>
+          <a:chExt cx="1511739" cy="394554"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="CaixaDeTexto 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EABAA20-FA26-A0A9-FA72-B070AB95A845}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5459730" y="32935"/>
+            <a:ext cx="435414" cy="365538"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0F172A"/>
+                </a:solidFill>
+                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+                <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>i9 </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="CaixaDeTexto 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC66A28-72A6-F281-8408-B2ACCDB5EF2B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5713095" y="61951"/>
+            <a:ext cx="1258374" cy="365538"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="b">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="2060EA"/>
+                </a:solidFill>
+                <a:latin typeface="SansSerif" panose="00000400000000000000" pitchFamily="2" charset="2"/>
+                <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Planilhas </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -4260,12 +4777,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Patrimônio_Registrado" displayName="Patrimônio_Registrado" ref="B4:G16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Patrimônio_Registrado" displayName="Patrimônio_Registrado" ref="B4:G16" headerRowDxfId="3">
   <autoFilter ref="B4:G16" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Data" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{5DA922F3-A24C-4C99-893A-4FC467775058}" name="Receita Mensal" dataDxfId="4" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Despesas Mensais" dataDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Data" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{5DA922F3-A24C-4C99-893A-4FC467775058}" name="Receita Mensal" dataDxfId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Despesas Mensais" dataDxfId="4" dataCellStyle="Moeda"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Poupança Registrada" dataDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>Patrimônio_Registrado[[#This Row],[Receita Mensal]]-Patrimônio_Registrado[[#This Row],[Despesas Mensais]]</calculatedColumnFormula>
     </tableColumn>
@@ -4479,8 +4996,8 @@
   </sheetPr>
   <dimension ref="B1:U994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4489,13 +5006,18 @@
     <col min="6" max="7" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18.75" customHeight="1">
+    <row r="1" spans="2:8" ht="58.5" customHeight="1">
       <c r="B1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B2" s="1"/>
+      <c r="B2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="H2" s="3"/>
@@ -4506,284 +5028,284 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>45292</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>2600</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>2600</v>
       </c>
       <c r="E5" s="11">
         <f>Patrimônio_Registrado[[#This Row],[Receita Mensal]]-Patrimônio_Registrado[[#This Row],[Despesas Mensais]]</f>
         <v>0</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>6000</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>6000</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>45323</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>2400</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>2800</v>
       </c>
       <c r="E6" s="11">
         <f>Patrimônio_Registrado[[#This Row],[Receita Mensal]]-Patrimônio_Registrado[[#This Row],[Despesas Mensais]]</f>
         <v>-400</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>6100</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <f>G5+Patrimônio_Registrado[[#This Row],[Poupança Registrada]]</f>
         <v>5600</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>45352</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>2400</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>1800</v>
       </c>
       <c r="E7" s="11">
         <f>Patrimônio_Registrado[[#This Row],[Receita Mensal]]-Patrimônio_Registrado[[#This Row],[Despesas Mensais]]</f>
         <v>600</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>6200</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <f>G6+Patrimônio_Registrado[[#This Row],[Poupança Registrada]]</f>
         <v>6200</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>45383</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>2400</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>2500</v>
       </c>
       <c r="E8" s="11">
         <f>Patrimônio_Registrado[[#This Row],[Receita Mensal]]-Patrimônio_Registrado[[#This Row],[Despesas Mensais]]</f>
         <v>-100</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>6300</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f>G7+Patrimônio_Registrado[[#This Row],[Poupança Registrada]]</f>
         <v>6100</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>45413</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>2400</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>1600</v>
       </c>
       <c r="E9" s="11">
         <f>Patrimônio_Registrado[[#This Row],[Receita Mensal]]-Patrimônio_Registrado[[#This Row],[Despesas Mensais]]</f>
         <v>800</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>6400</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f>G8+Patrimônio_Registrado[[#This Row],[Poupança Registrada]]</f>
         <v>6900</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>45444</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>2400</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>2100</v>
       </c>
       <c r="E10" s="11">
         <f>Patrimônio_Registrado[[#This Row],[Receita Mensal]]-Patrimônio_Registrado[[#This Row],[Despesas Mensais]]</f>
         <v>300</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>6500</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <f>G9+Patrimônio_Registrado[[#This Row],[Poupança Registrada]]</f>
         <v>7200</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>45474</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>2400</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>2941.67</v>
       </c>
       <c r="E11" s="11">
         <f>Patrimônio_Registrado[[#This Row],[Receita Mensal]]-Patrimônio_Registrado[[#This Row],[Despesas Mensais]]</f>
         <v>-541.67000000000007</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>6600</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <f>G10+Patrimônio_Registrado[[#This Row],[Poupança Registrada]]</f>
         <v>6658.33</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>45505</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>2400</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>1958.33</v>
       </c>
       <c r="E12" s="11">
         <f>Patrimônio_Registrado[[#This Row],[Receita Mensal]]-Patrimônio_Registrado[[#This Row],[Despesas Mensais]]</f>
         <v>441.67000000000007</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>6700</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <f>G11+Patrimônio_Registrado[[#This Row],[Poupança Registrada]]</f>
         <v>7100</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B13" s="7">
+      <c r="B13" s="9">
         <v>45536</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>2400</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>4400</v>
       </c>
       <c r="E13" s="11">
         <f>Patrimônio_Registrado[[#This Row],[Receita Mensal]]-Patrimônio_Registrado[[#This Row],[Despesas Mensais]]</f>
         <v>-2000</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>6800</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <f>G12+Patrimônio_Registrado[[#This Row],[Poupança Registrada]]</f>
         <v>5100</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B14" s="7">
+      <c r="B14" s="9">
         <v>45566</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>3500</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>2500</v>
       </c>
       <c r="E14" s="11">
         <f>Patrimônio_Registrado[[#This Row],[Receita Mensal]]-Patrimônio_Registrado[[#This Row],[Despesas Mensais]]</f>
         <v>1000</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>6900</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <f>G13+Patrimônio_Registrado[[#This Row],[Poupança Registrada]]</f>
         <v>6100</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B15" s="7">
+      <c r="B15" s="9">
         <v>45597</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>3500</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>4700</v>
       </c>
       <c r="E15" s="11">
         <f>Patrimônio_Registrado[[#This Row],[Receita Mensal]]-Patrimônio_Registrado[[#This Row],[Despesas Mensais]]</f>
         <v>-1200</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>7000</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <f>G14+Patrimônio_Registrado[[#This Row],[Poupança Registrada]]</f>
         <v>4900</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>45627</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>3500</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>4500</v>
       </c>
       <c r="E16" s="11">
         <f>Patrimônio_Registrado[[#This Row],[Receita Mensal]]-Patrimônio_Registrado[[#This Row],[Despesas Mensais]]</f>
         <v>-1000</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>7100</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <f>G15+Patrimônio_Registrado[[#This Row],[Poupança Registrada]]</f>
         <v>3900</v>
       </c>
@@ -4794,64 +5316,64 @@
     <row r="20" spans="10:21" ht="22.5" customHeight="1"/>
     <row r="21" spans="10:21" ht="22.5" customHeight="1"/>
     <row r="22" spans="10:21" ht="22.5" customHeight="1">
-      <c r="J22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
+      <c r="J22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
     </row>
     <row r="23" spans="10:21" ht="22.5" customHeight="1"/>
     <row r="24" spans="10:21" ht="22.5" customHeight="1">
-      <c r="J24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
+      <c r="J24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
     </row>
     <row r="25" spans="10:21" ht="22.5" customHeight="1">
-      <c r="J25" s="8"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="10:21" ht="22.5" customHeight="1">
-      <c r="J26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
+      <c r="J26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
     </row>
     <row r="27" spans="10:21" ht="22.5" customHeight="1">
-      <c r="J27" s="8"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="10:21" ht="22.5" customHeight="1">
-      <c r="J28" s="8"/>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" spans="10:21" ht="22.5" customHeight="1">
-      <c r="J29" s="8"/>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" spans="10:21" ht="22.5" customHeight="1">
-      <c r="J30" s="8"/>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="10:21" ht="22.5" customHeight="1">
-      <c r="J31" s="8"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" spans="10:21" ht="22.5" customHeight="1">
-      <c r="J32" s="8"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="35" spans="3:5" ht="15.75" customHeight="1">
       <c r="C35" s="2"/>
@@ -9596,22 +10118,29 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC7D31-8F30-4C50-86CD-03EFC27F0DAE}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI46" sqref="AI46"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:5" ht="58.5" customHeight="1">
+      <c r="B1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -9629,7 +10158,7 @@
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9639,34 +10168,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="8">
         <f>SUM(Patrimônio_Registrado[Receita Mensal])</f>
         <v>32300</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="8">
         <f>SUM(Patrimônio_Registrado[Despesas Mensais])</f>
         <v>34400</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="8">
         <f>C2-C3</f>
         <v>-2100</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" cm="1">
@@ -9675,7 +10204,7 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C7" cm="1">
@@ -9684,19 +10213,19 @@
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <f>C6/C7</f>
         <v>0.54929577464788737</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <f>1-C9</f>
         <v>0.45070422535211263</v>
       </c>
